--- a/HLR TESTCASE AND SCENARIOS.xlsx
+++ b/HLR TESTCASE AND SCENARIOS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="1867">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -6260,9 +6260,6 @@
     </r>
   </si>
   <si>
-    <t>verify the maps function whether it shows the related different places on related search or not</t>
-  </si>
-  <si>
     <t>verify that the we can able to do the function of save as or not</t>
   </si>
   <si>
@@ -6270,15 +6267,64 @@
   </si>
   <si>
     <t>Verify if the the wrist watch sr.no and brand name are not clearly visible so that it becomes difficult to find the brand name for repairing purpose.</t>
+  </si>
+  <si>
+    <t>verify if the working on google may require most of your time</t>
+  </si>
+  <si>
+    <t>check it so many advertisement in google page</t>
+  </si>
+  <si>
+    <t>check it is difficult to be transparent with your teammates</t>
+  </si>
+  <si>
+    <t>verify if many projects are cancelled constantly and without reason.</t>
+  </si>
+  <si>
+    <t>verify if temporary and external workers are despised</t>
+  </si>
+  <si>
+    <t>verify it also uses that data to serve you ads. It tracks your search history, and you may find ads related to such searches appearing not only on Google but on other sites, like YouTube or even Facebook.</t>
+  </si>
+  <si>
+    <t>verify if Google lacks a rewards program that rewards you for using the internet to search.</t>
+  </si>
+  <si>
+    <t>check it Google gives excellent results when you search for articles. However, when you go to the images or videos tab, Google is lacking in some ways.</t>
+  </si>
+  <si>
+    <t>check it Poor Video and Image Results.</t>
+  </si>
+  <si>
+    <t>verify if google may not index everything from your website. So, the results may not show a particular post or page from your website.</t>
+  </si>
+  <si>
+    <t>verify the maps function whether it shows the related different placeson related search or not</t>
+  </si>
+  <si>
+    <t>verify if there are no possibilities to remove Edge and IE from Windows. So you need to live with multiple browsers to handle the same tasks on your computer.</t>
+  </si>
+  <si>
+    <t>check it google doesn’t allow certain customization.</t>
+  </si>
+  <si>
+    <t>verify if Limited functionality compared to other website builders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6864,57 +6910,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -6923,16 +6969,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6944,259 +6990,262 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7470,7 +7519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8948,7 +8997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -23676,9 +23725,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -23689,294 +23738,181 @@
     <col min="3" max="3" width="74.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:3" s="115" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A1" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="67" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="67" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A2" s="27">
+      <c r="A2" s="57">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="58" t="s">
         <v>1026</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="58" t="s">
+        <v>1853</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A3" s="27">
+      <c r="A3" s="57">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="58" t="s">
         <v>1027</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="58" t="s">
+        <v>1854</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A4" s="27">
+      <c r="A4" s="57">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="58" t="s">
         <v>1028</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="58" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A5" s="27">
+      <c r="A5" s="57">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="58" t="s">
         <v>1029</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="58" t="s">
+        <v>1856</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A6" s="27">
+      <c r="A6" s="57">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="58" t="s">
         <v>1030</v>
       </c>
-      <c r="C6" s="28"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A7" s="27">
+      <c r="C6" s="58" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="48" thickBot="1">
+      <c r="A7" s="57">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="58" t="s">
         <v>1031</v>
       </c>
-      <c r="C7" s="28"/>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A8" s="27">
+      <c r="C7" s="58" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="32.25" thickBot="1">
+      <c r="A8" s="57">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="58" t="s">
         <v>1032</v>
       </c>
-      <c r="C8" s="28"/>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A9" s="27">
+      <c r="C8" s="58" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="48" thickBot="1">
+      <c r="A9" s="57">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="58" t="s">
         <v>1033</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="58" t="s">
+        <v>1860</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A10" s="27">
+      <c r="A10" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="58" t="s">
         <v>1034</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="58" t="s">
+        <v>1861</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A11" s="27">
+      <c r="A11" s="57">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="58" t="s">
         <v>1035</v>
       </c>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A12" s="27">
+      <c r="C11" s="58" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="48" thickBot="1">
+      <c r="A12" s="57">
         <v>11</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C12" s="28"/>
+      <c r="B12" s="58" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>1864</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A13" s="27">
+      <c r="A13" s="57">
         <v>12</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="58" t="s">
         <v>1036</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="58" t="s">
+        <v>1865</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A14" s="27">
+      <c r="A14" s="57">
         <v>13</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="58" t="s">
         <v>1037</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="58" t="s">
+        <v>1866</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="32.25" thickBot="1">
-      <c r="A15" s="27">
+      <c r="A15" s="57">
         <v>14</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="58" t="s">
         <v>1038</v>
       </c>
-      <c r="C15" s="28"/>
+      <c r="C15" s="58"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A16" s="27">
+      <c r="A16" s="57">
         <v>15</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="58" t="s">
         <v>1039</v>
       </c>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A17" s="27">
-        <v>16</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A18" s="27">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A19" s="27">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A20" s="27">
-        <v>19</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A21" s="27">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A22" s="27">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A23" s="27">
-        <v>22</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A24" s="27">
-        <v>23</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A25" s="27">
-        <v>24</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A26" s="27">
-        <v>25</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A27" s="27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A28" s="27">
-        <v>27</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A29" s="27">
-        <v>28</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A30" s="27">
-        <v>29</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A31" s="27">
-        <v>30</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A32" s="27">
-        <v>31</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A33" s="27">
-        <v>32</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A34" s="27">
-        <v>33</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A35" s="27">
-        <v>34</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A36" s="27">
-        <v>35</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="C16" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24773,7 +24709,7 @@
         <v>968</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
   </sheetData>
@@ -24903,7 +24839,7 @@
         <v>985</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1">
@@ -24944,7 +24880,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>992</v>
